--- a/MegaMacro Repo.xlsx
+++ b/MegaMacro Repo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE37D88-8F7A-6A4D-8EF4-C0D094A4595B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3C2699-7A03-457E-A0C7-091BB92D98A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="30440" windowHeight="17440" xr2:uid="{34183979-10A8-E449-9473-CE85BD33BE39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{34183979-10A8-E449-9473-CE85BD33BE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,9 +56,6 @@
     <t>MatchWholeWord</t>
   </si>
   <si>
-    <t>"&amp;"</t>
-  </si>
-  <si>
     <t>&amp; Symbol</t>
   </si>
   <si>
@@ -67,9 +65,6 @@
     <t>Change</t>
   </si>
   <si>
-    <t>"and"</t>
-  </si>
-  <si>
     <t>"Russ College of Engineering and"</t>
   </si>
   <si>
@@ -329,6 +324,12 @@
   </si>
   <si>
     <t>"Jquery"</t>
+  </si>
+  <si>
+    <t>" &amp; "</t>
+  </si>
+  <si>
+    <t>" and "</t>
   </si>
 </sst>
 </file>
@@ -761,29 +762,29 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" style="8" customWidth="1"/>
-    <col min="4" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="58.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="38.125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="61.375" customWidth="1"/>
     <col min="7" max="7" width="58.5" customWidth="1"/>
-    <col min="8" max="9" width="27.83203125" customWidth="1"/>
+    <col min="8" max="9" width="27.875" customWidth="1"/>
     <col min="10" max="10" width="178" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -799,15 +800,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -817,11 +818,11 @@
       </c>
       <c r="F2" s="3" t="str">
         <f>"megaMacro(" &amp; ROW(B2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; B2</f>
-        <v>megaMacro(1, 1) = "&amp;"</v>
+        <v>megaMacro(1, 1) = " &amp; "</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>"megaMacro(" &amp; ROW(B2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; C2</f>
-        <v>megaMacro(1, 2) = "and"</v>
+        <v>megaMacro(1, 2) = " and "</v>
       </c>
       <c r="H2" s="3" t="str">
         <f>"megaMacro(" &amp; ROW(B2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; D2</f>
@@ -833,15 +834,15 @@
       </c>
       <c r="J2" s="3" t="str">
         <f xml:space="preserve"> F2 &amp; " : " &amp; G2 &amp; " : " &amp; H2 &amp; " : " &amp; I2</f>
-        <v>megaMacro(1, 1) = "&amp;" : megaMacro(1, 2) = "and" : megaMacro(1, 3) = "N" : megaMacro(1, 4) = "Y"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>megaMacro(1, 1) = " &amp; " : megaMacro(1, 2) = " and " : megaMacro(1, 3) = "N" : megaMacro(1, 4) = "Y"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -870,12 +871,12 @@
         <v>megaMacro(2, 1) = "Russ College of Engineering and" : megaMacro(2, 2) = "Russ College of Engineering &amp;" : megaMacro(2, 3) = "N" : megaMacro(2, 4) = "Y"</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -904,12 +905,12 @@
         <v>megaMacro(3, 1) = "Larsen and Toubro" : megaMacro(3, 2) = "Larsen &amp; Toubro" : megaMacro(3, 3) = "Y" : megaMacro(3, 4) = "Y"</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -938,12 +939,12 @@
         <v>megaMacro(4, 1) = "LARSEN and TOUBRO" : megaMacro(4, 2) = "LARSEN &amp; TOUBRO" : megaMacro(4, 3) = "Y" : megaMacro(4, 4) = "Y"</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -972,12 +973,12 @@
         <v>megaMacro(5, 1) = "Deloitte and Touche" : megaMacro(5, 2) = "Deloitte &amp; Touche" : megaMacro(5, 3) = "Y" : megaMacro(5, 4) = "Y"</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -1006,1035 +1007,1035 @@
         <v>megaMacro(6, 1) = "DELOITTE and TOUCHE" : megaMacro(6, 2) = "DELOITTE &amp; TOUCHE" : megaMacro(6, 3) = "Y" : megaMacro(6, 4) = "Y"</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(7, 1) = "11)" &amp; vbTab</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(7, 2) = ""</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(7, 3) = "N"</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(7, 4) = "N"</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(7, 1) = "11)" &amp; vbTab : megaMacro(7, 2) = "" : megaMacro(7, 3) = "N" : megaMacro(7, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(8, 1) = "1)" &amp; vbTab</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(8, 2) = ""</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(8, 3) = "N"</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(8, 4) = "N"</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(8, 1) = "1)" &amp; vbTab : megaMacro(8, 2) = "" : megaMacro(8, 3) = "N" : megaMacro(8, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(7, 1) = "11)" &amp; vbTab</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(7, 2) = ""</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(7, 3) = "N"</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(7, 4) = "N"</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(7, 1) = "11)" &amp; vbTab : megaMacro(7, 2) = "" : megaMacro(7, 3) = "N" : megaMacro(7, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(9, 1) = "2)" &amp; vbTab</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(9, 2) = ""</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(9, 3) = "N"</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(9, 4) = "N"</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(9, 1) = "2)" &amp; vbTab : megaMacro(9, 2) = "" : megaMacro(9, 3) = "N" : megaMacro(9, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(8, 1) = "1)" &amp; vbTab</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(8, 2) = ""</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(8, 3) = "N"</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(8, 4) = "N"</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(8, 1) = "1)" &amp; vbTab : megaMacro(8, 2) = "" : megaMacro(8, 3) = "N" : megaMacro(8, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(10, 1) = "3)" &amp; vbTab</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(10, 2) = ""</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(10, 3) = "N"</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(10, 4) = "N"</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(10, 1) = "3)" &amp; vbTab : megaMacro(10, 2) = "" : megaMacro(10, 3) = "N" : megaMacro(10, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(9, 1) = "2)" &amp; vbTab</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(9, 2) = ""</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(9, 3) = "N"</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(9, 4) = "N"</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(9, 1) = "2)" &amp; vbTab : megaMacro(9, 2) = "" : megaMacro(9, 3) = "N" : megaMacro(9, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(11, 1) = "4)" &amp; vbTab</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(11, 2) = ""</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(11, 3) = "N"</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(11, 4) = "N"</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(11, 1) = "4)" &amp; vbTab : megaMacro(11, 2) = "" : megaMacro(11, 3) = "N" : megaMacro(11, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(10, 1) = "3)" &amp; vbTab</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(10, 2) = ""</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(10, 3) = "N"</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(10, 4) = "N"</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(10, 1) = "3)" &amp; vbTab : megaMacro(10, 2) = "" : megaMacro(10, 3) = "N" : megaMacro(10, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(12, 1) = "5)" &amp; vbTab</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(12, 2) = ""</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(12, 3) = "N"</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(12, 4) = "N"</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(12, 1) = "5)" &amp; vbTab : megaMacro(12, 2) = "" : megaMacro(12, 3) = "N" : megaMacro(12, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(11, 1) = "4)" &amp; vbTab</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(11, 2) = ""</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(11, 3) = "N"</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(11, 4) = "N"</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(11, 1) = "4)" &amp; vbTab : megaMacro(11, 2) = "" : megaMacro(11, 3) = "N" : megaMacro(11, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(13, 1) = "6)" &amp; vbTab</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(13, 2) = ""</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(13, 3) = "N"</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(13, 4) = "N"</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(13, 1) = "6)" &amp; vbTab : megaMacro(13, 2) = "" : megaMacro(13, 3) = "N" : megaMacro(13, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(12, 1) = "5)" &amp; vbTab</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(12, 2) = ""</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(12, 3) = "N"</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(12, 4) = "N"</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(12, 1) = "5)" &amp; vbTab : megaMacro(12, 2) = "" : megaMacro(12, 3) = "N" : megaMacro(12, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(14, 1) = "7)" &amp; vbTab</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(14, 2) = ""</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(14, 3) = "N"</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(14, 4) = "N"</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(14, 1) = "7)" &amp; vbTab : megaMacro(14, 2) = "" : megaMacro(14, 3) = "N" : megaMacro(14, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(13, 1) = "6)" &amp; vbTab</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(13, 2) = ""</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(13, 3) = "N"</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(13, 4) = "N"</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(13, 1) = "6)" &amp; vbTab : megaMacro(13, 2) = "" : megaMacro(13, 3) = "N" : megaMacro(13, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(15, 1) = "8)" &amp; vbTab</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(15, 2) = ""</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(15, 3) = "N"</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(15, 4) = "N"</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(15, 1) = "8)" &amp; vbTab : megaMacro(15, 2) = "" : megaMacro(15, 3) = "N" : megaMacro(15, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(14, 1) = "7)" &amp; vbTab</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(14, 2) = ""</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(14, 3) = "N"</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(14, 4) = "N"</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(14, 1) = "7)" &amp; vbTab : megaMacro(14, 2) = "" : megaMacro(14, 3) = "N" : megaMacro(14, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(16, 1) = "9)" &amp; vbTab</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(16, 2) = ""</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(16, 3) = "N"</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(16, 4) = "N"</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(16, 1) = "9)" &amp; vbTab : megaMacro(16, 2) = "" : megaMacro(16, 3) = "N" : megaMacro(16, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(15, 1) = "8)" &amp; vbTab</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(15, 2) = ""</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(15, 3) = "N"</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(15, 4) = "N"</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(15, 1) = "8)" &amp; vbTab : megaMacro(15, 2) = "" : megaMacro(15, 3) = "N" : megaMacro(15, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(17, 1) = "10)" &amp; vbTab</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(17, 2) = ""</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(17, 3) = "N"</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(17, 4) = "N"</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(17, 1) = "10)" &amp; vbTab : megaMacro(17, 2) = "" : megaMacro(17, 3) = "N" : megaMacro(17, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(16, 1) = "9)" &amp; vbTab</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(16, 2) = ""</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(16, 3) = "N"</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(16, 4) = "N"</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(16, 1) = "9)" &amp; vbTab : megaMacro(16, 2) = "" : megaMacro(16, 3) = "N" : megaMacro(16, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(18, 1) = "11." &amp; vbTab</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(18, 2) = ""</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(18, 3) = "N"</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(18, 4) = "N"</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(18, 1) = "11." &amp; vbTab : megaMacro(18, 2) = "" : megaMacro(18, 3) = "N" : megaMacro(18, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(17, 1) = "10)" &amp; vbTab</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(17, 2) = ""</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(17, 3) = "N"</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(17, 4) = "N"</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(17, 1) = "10)" &amp; vbTab : megaMacro(17, 2) = "" : megaMacro(17, 3) = "N" : megaMacro(17, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(19, 1) = "12." &amp; vbTab</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(19, 2) = ""</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(19, 3) = "N"</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(19, 4) = "N"</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(19, 1) = "12." &amp; vbTab : megaMacro(19, 2) = "" : megaMacro(19, 3) = "N" : megaMacro(19, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(18, 1) = "11." &amp; vbTab</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(18, 2) = ""</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(18, 3) = "N"</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(18, 4) = "N"</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(18, 1) = "11." &amp; vbTab : megaMacro(18, 2) = "" : megaMacro(18, 3) = "N" : megaMacro(18, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(20, 1) = "13." &amp; vbTab</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(20, 2) = ""</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(20, 3) = "N"</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(20, 4) = "N"</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(20, 1) = "13." &amp; vbTab : megaMacro(20, 2) = "" : megaMacro(20, 3) = "N" : megaMacro(20, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(19, 1) = "12." &amp; vbTab</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(19, 2) = ""</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(19, 3) = "N"</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(19, 4) = "N"</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(19, 1) = "12." &amp; vbTab : megaMacro(19, 2) = "" : megaMacro(19, 3) = "N" : megaMacro(19, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(21, 1) = "14." &amp; vbTab</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(21, 2) = ""</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(21, 3) = "N"</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(21, 4) = "N"</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(21, 1) = "14." &amp; vbTab : megaMacro(21, 2) = "" : megaMacro(21, 3) = "N" : megaMacro(21, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(20, 1) = "13." &amp; vbTab</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(20, 2) = ""</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(20, 3) = "N"</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(20, 4) = "N"</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(20, 1) = "13." &amp; vbTab : megaMacro(20, 2) = "" : megaMacro(20, 3) = "N" : megaMacro(20, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(22, 1) = "15." &amp; vbTab</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(22, 2) = ""</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(22, 3) = "N"</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(22, 4) = "N"</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(22, 1) = "15." &amp; vbTab : megaMacro(22, 2) = "" : megaMacro(22, 3) = "N" : megaMacro(22, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(21, 1) = "14." &amp; vbTab</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(21, 2) = ""</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(21, 3) = "N"</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(21, 4) = "N"</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(21, 1) = "14." &amp; vbTab : megaMacro(21, 2) = "" : megaMacro(21, 3) = "N" : megaMacro(21, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(23, 1) = "16." &amp; vbTab</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(23, 2) = ""</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(23, 3) = "N"</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(23, 4) = "N"</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(23, 1) = "16." &amp; vbTab : megaMacro(23, 2) = "" : megaMacro(23, 3) = "N" : megaMacro(23, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(22, 1) = "15." &amp; vbTab</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(22, 2) = ""</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(22, 3) = "N"</v>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(22, 4) = "N"</v>
-      </c>
-      <c r="J23" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(22, 1) = "15." &amp; vbTab : megaMacro(22, 2) = "" : megaMacro(22, 3) = "N" : megaMacro(22, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(24, 1) = "17." &amp; vbTab</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(24, 2) = ""</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(24, 3) = "N"</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(24, 4) = "N"</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(24, 1) = "17." &amp; vbTab : megaMacro(24, 2) = "" : megaMacro(24, 3) = "N" : megaMacro(24, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(23, 1) = "16." &amp; vbTab</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(23, 2) = ""</v>
-      </c>
-      <c r="H24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(23, 3) = "N"</v>
-      </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(23, 4) = "N"</v>
-      </c>
-      <c r="J24" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(23, 1) = "16." &amp; vbTab : megaMacro(23, 2) = "" : megaMacro(23, 3) = "N" : megaMacro(23, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(25, 1) = "18." &amp; vbTab</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(25, 2) = ""</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(25, 3) = "N"</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(25, 4) = "N"</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(25, 1) = "18." &amp; vbTab : megaMacro(25, 2) = "" : megaMacro(25, 3) = "N" : megaMacro(25, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(24, 1) = "17." &amp; vbTab</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(24, 2) = ""</v>
-      </c>
-      <c r="H25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(24, 3) = "N"</v>
-      </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(24, 4) = "N"</v>
-      </c>
-      <c r="J25" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(24, 1) = "17." &amp; vbTab : megaMacro(24, 2) = "" : megaMacro(24, 3) = "N" : megaMacro(24, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(26, 1) = "19." &amp; vbTab</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(26, 2) = ""</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(26, 3) = "N"</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(26, 4) = "N"</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(26, 1) = "19." &amp; vbTab : megaMacro(26, 2) = "" : megaMacro(26, 3) = "N" : megaMacro(26, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(25, 1) = "18." &amp; vbTab</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(25, 2) = ""</v>
-      </c>
-      <c r="H26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(25, 3) = "N"</v>
-      </c>
-      <c r="I26" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(25, 4) = "N"</v>
-      </c>
-      <c r="J26" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(25, 1) = "18." &amp; vbTab : megaMacro(25, 2) = "" : megaMacro(25, 3) = "N" : megaMacro(25, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(27, 1) = "20." &amp; vbTab</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(27, 2) = ""</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(27, 3) = "N"</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(27, 4) = "N"</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(27, 1) = "20." &amp; vbTab : megaMacro(27, 2) = "" : megaMacro(27, 3) = "N" : megaMacro(27, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(26, 1) = "19." &amp; vbTab</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(26, 2) = ""</v>
-      </c>
-      <c r="H27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(26, 3) = "N"</v>
-      </c>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(26, 4) = "N"</v>
-      </c>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(26, 1) = "19." &amp; vbTab : megaMacro(26, 2) = "" : megaMacro(26, 3) = "N" : megaMacro(26, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(28, 1) = "1." &amp; vbTab</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(28, 2) = ""</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(28, 3) = "N"</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(28, 4) = "N"</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(28, 1) = "1." &amp; vbTab : megaMacro(28, 2) = "" : megaMacro(28, 3) = "N" : megaMacro(28, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(27, 1) = "20." &amp; vbTab</v>
-      </c>
-      <c r="G28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(27, 2) = ""</v>
-      </c>
-      <c r="H28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(27, 3) = "N"</v>
-      </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(27, 4) = "N"</v>
-      </c>
-      <c r="J28" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(27, 1) = "20." &amp; vbTab : megaMacro(27, 2) = "" : megaMacro(27, 3) = "N" : megaMacro(27, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(29, 1) = "2." &amp; vbTab</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(29, 2) = ""</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(29, 3) = "N"</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(29, 4) = "N"</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(29, 1) = "2." &amp; vbTab : megaMacro(29, 2) = "" : megaMacro(29, 3) = "N" : megaMacro(29, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(28, 1) = "1." &amp; vbTab</v>
-      </c>
-      <c r="G29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(28, 2) = ""</v>
-      </c>
-      <c r="H29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(28, 3) = "N"</v>
-      </c>
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(28, 4) = "N"</v>
-      </c>
-      <c r="J29" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(28, 1) = "1." &amp; vbTab : megaMacro(28, 2) = "" : megaMacro(28, 3) = "N" : megaMacro(28, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+      <c r="C31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(30, 1) = "3." &amp; vbTab</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(30, 2) = ""</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(30, 3) = "N"</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(30, 4) = "N"</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(30, 1) = "3." &amp; vbTab : megaMacro(30, 2) = "" : megaMacro(30, 3) = "N" : megaMacro(30, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(29, 1) = "2." &amp; vbTab</v>
-      </c>
-      <c r="G30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(29, 2) = ""</v>
-      </c>
-      <c r="H30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(29, 3) = "N"</v>
-      </c>
-      <c r="I30" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(29, 4) = "N"</v>
-      </c>
-      <c r="J30" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(29, 1) = "2." &amp; vbTab : megaMacro(29, 2) = "" : megaMacro(29, 3) = "N" : megaMacro(29, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(31, 1) = "4." &amp; vbTab</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(31, 2) = ""</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(31, 3) = "N"</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(31, 4) = "N"</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(31, 1) = "4." &amp; vbTab : megaMacro(31, 2) = "" : megaMacro(31, 3) = "N" : megaMacro(31, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(30, 1) = "3." &amp; vbTab</v>
-      </c>
-      <c r="G31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(30, 2) = ""</v>
-      </c>
-      <c r="H31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(30, 3) = "N"</v>
-      </c>
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(30, 4) = "N"</v>
-      </c>
-      <c r="J31" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(30, 1) = "3." &amp; vbTab : megaMacro(30, 2) = "" : megaMacro(30, 3) = "N" : megaMacro(30, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(32, 1) = "5." &amp; vbTab</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(32, 2) = ""</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(32, 3) = "N"</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(32, 4) = "N"</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(32, 1) = "5." &amp; vbTab : megaMacro(32, 2) = "" : megaMacro(32, 3) = "N" : megaMacro(32, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(31, 1) = "4." &amp; vbTab</v>
-      </c>
-      <c r="G32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(31, 2) = ""</v>
-      </c>
-      <c r="H32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(31, 3) = "N"</v>
-      </c>
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(31, 4) = "N"</v>
-      </c>
-      <c r="J32" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(31, 1) = "4." &amp; vbTab : megaMacro(31, 2) = "" : megaMacro(31, 3) = "N" : megaMacro(31, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
+      <c r="C34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(33, 1) = "6." &amp; vbTab</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(33, 2) = ""</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(33, 3) = "N"</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(33, 4) = "N"</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(33, 1) = "6." &amp; vbTab : megaMacro(33, 2) = "" : megaMacro(33, 3) = "N" : megaMacro(33, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(32, 1) = "5." &amp; vbTab</v>
-      </c>
-      <c r="G33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(32, 2) = ""</v>
-      </c>
-      <c r="H33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(32, 3) = "N"</v>
-      </c>
-      <c r="I33" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(32, 4) = "N"</v>
-      </c>
-      <c r="J33" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(32, 1) = "5." &amp; vbTab : megaMacro(32, 2) = "" : megaMacro(32, 3) = "N" : megaMacro(32, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(34, 1) = "7." &amp; vbTab</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(34, 2) = ""</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(34, 3) = "N"</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(34, 4) = "N"</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(34, 1) = "7." &amp; vbTab : megaMacro(34, 2) = "" : megaMacro(34, 3) = "N" : megaMacro(34, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(33, 1) = "6." &amp; vbTab</v>
-      </c>
-      <c r="G34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(33, 2) = ""</v>
-      </c>
-      <c r="H34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(33, 3) = "N"</v>
-      </c>
-      <c r="I34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(33, 4) = "N"</v>
-      </c>
-      <c r="J34" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(33, 1) = "6." &amp; vbTab : megaMacro(33, 2) = "" : megaMacro(33, 3) = "N" : megaMacro(33, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(35, 1) = "8." &amp; vbTab</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(35, 2) = ""</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(35, 3) = "N"</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(35, 4) = "N"</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(35, 1) = "8." &amp; vbTab : megaMacro(35, 2) = "" : megaMacro(35, 3) = "N" : megaMacro(35, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(34, 1) = "7." &amp; vbTab</v>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(34, 2) = ""</v>
-      </c>
-      <c r="H35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(34, 3) = "N"</v>
-      </c>
-      <c r="I35" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(34, 4) = "N"</v>
-      </c>
-      <c r="J35" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(34, 1) = "7." &amp; vbTab : megaMacro(34, 2) = "" : megaMacro(34, 3) = "N" : megaMacro(34, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
+      <c r="C37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(36, 1) = "9." &amp; vbTab</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(36, 2) = ""</v>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(36, 3) = "N"</v>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(36, 4) = "N"</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(36, 1) = "9." &amp; vbTab : megaMacro(36, 2) = "" : megaMacro(36, 3) = "N" : megaMacro(36, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(35, 1) = "8." &amp; vbTab</v>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(35, 2) = ""</v>
-      </c>
-      <c r="H36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(35, 3) = "N"</v>
-      </c>
-      <c r="I36" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(35, 4) = "N"</v>
-      </c>
-      <c r="J36" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(35, 1) = "8." &amp; vbTab : megaMacro(35, 2) = "" : megaMacro(35, 3) = "N" : megaMacro(35, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(36, 1) = "9." &amp; vbTab</v>
-      </c>
-      <c r="G37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(36, 2) = ""</v>
-      </c>
-      <c r="H37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(36, 3) = "N"</v>
-      </c>
-      <c r="I37" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(36, 4) = "N"</v>
-      </c>
-      <c r="J37" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(36, 1) = "9." &amp; vbTab : megaMacro(36, 2) = "" : megaMacro(36, 3) = "N" : megaMacro(36, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
@@ -2063,12 +2064,12 @@
         <v>megaMacro(37, 1) = "10." &amp; vbTab : megaMacro(37, 2) = "" : megaMacro(37, 3) = "N" : megaMacro(37, 4) = "N"</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
@@ -2097,12 +2098,12 @@
         <v>megaMacro(38, 1) = "ix." &amp; vbTab : megaMacro(38, 2) = "" : megaMacro(38, 3) = "N" : megaMacro(38, 4) = "N"</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>2</v>
@@ -2131,12 +2132,12 @@
         <v>megaMacro(39, 1) = "x." &amp; vbTab : megaMacro(39, 2) = "" : megaMacro(39, 3) = "N" : megaMacro(39, 4) = "N"</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>2</v>
@@ -2165,12 +2166,12 @@
         <v>megaMacro(40, 1) = "iv." &amp; vbTab : megaMacro(40, 2) = "" : megaMacro(40, 3) = "N" : megaMacro(40, 4) = "N"</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>2</v>
@@ -2199,12 +2200,12 @@
         <v>megaMacro(41, 1) = "v." &amp; vbTab : megaMacro(41, 2) = "" : megaMacro(41, 3) = "N" : megaMacro(41, 4) = "N"</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>2</v>
@@ -2233,12 +2234,12 @@
         <v>megaMacro(42, 1) = "viii." &amp; vbTab : megaMacro(42, 2) = "" : megaMacro(42, 3) = "N" : megaMacro(42, 4) = "N"</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>2</v>
@@ -2267,12 +2268,12 @@
         <v>megaMacro(43, 1) = "vii." &amp; vbTab : megaMacro(43, 2) = "" : megaMacro(43, 3) = "N" : megaMacro(43, 4) = "N"</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
@@ -2301,12 +2302,12 @@
         <v>megaMacro(44, 1) = "vi." &amp; vbTab : megaMacro(44, 2) = "" : megaMacro(44, 3) = "N" : megaMacro(44, 4) = "N"</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>2</v>
@@ -2335,12 +2336,12 @@
         <v>megaMacro(45, 1) = "iii." &amp; vbTab : megaMacro(45, 2) = "" : megaMacro(45, 3) = "N" : megaMacro(45, 4) = "N"</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>2</v>
@@ -2369,12 +2370,12 @@
         <v>megaMacro(46, 1) = "ii." &amp; vbTab : megaMacro(46, 2) = "" : megaMacro(46, 3) = "N" : megaMacro(46, 4) = "N"</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>2</v>
@@ -2403,15 +2404,15 @@
         <v>megaMacro(47, 1) = "i." &amp; vbTab : megaMacro(47, 2) = "" : megaMacro(47, 3) = "N" : megaMacro(47, 4) = "N"</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
@@ -2440,12 +2441,12 @@
         <v>megaMacro(48, 1) = "INSERT DUTIES HERE" &amp; vbCr : megaMacro(48, 2) = "" : megaMacro(48, 3) = "Y" : megaMacro(48, 4) = "N"</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>3</v>
@@ -2474,117 +2475,117 @@
         <v>megaMacro(49, 1) = "INSERT JOB DUTIES" &amp; vbCr : megaMacro(49, 2) = "" : megaMacro(49, 3) = "Y" : megaMacro(49, 4) = "N"</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(50, 1) = "Batchelor's"</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(50, 2) = "Bachelor's"</v>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(50, 3) = "N"</v>
+      </c>
+      <c r="I51" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(50, 4) = "N"</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(50, 1) = "Batchelor's" : megaMacro(50, 2) = "Bachelor's" : megaMacro(50, 3) = "N" : megaMacro(50, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(50, 1) = "Batchelor's"</v>
-      </c>
-      <c r="G51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(50, 2) = "Bachelor's"</v>
-      </c>
-      <c r="H51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(50, 3) = "N"</v>
-      </c>
-      <c r="I51" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(50, 4) = "N"</v>
-      </c>
-      <c r="J51" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(50, 1) = "Batchelor's" : megaMacro(50, 2) = "Bachelor's" : megaMacro(50, 3) = "N" : megaMacro(50, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="6" t="s">
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(51, 1) = "masters"</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(51, 2) = "Master's"</v>
+      </c>
+      <c r="H52" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(51, 3) = "N"</v>
+      </c>
+      <c r="I52" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(51, 4) = "N"</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(51, 1) = "masters" : megaMacro(51, 2) = "Master's" : megaMacro(51, 3) = "N" : megaMacro(51, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(52, 1) = "bachelors"</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(52, 2) = "Bachelor's"</v>
+      </c>
+      <c r="H53" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(52, 3) = "N"</v>
+      </c>
+      <c r="I53" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(52, 4) = "N"</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(52, 1) = "bachelors" : megaMacro(52, 2) = "Bachelor's" : megaMacro(52, 3) = "N" : megaMacro(52, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(51, 1) = "masters"</v>
-      </c>
-      <c r="G52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(51, 2) = "Master's"</v>
-      </c>
-      <c r="H52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(51, 3) = "N"</v>
-      </c>
-      <c r="I52" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(51, 4) = "N"</v>
-      </c>
-      <c r="J52" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(51, 1) = "masters" : megaMacro(51, 2) = "Master's" : megaMacro(51, 3) = "N" : megaMacro(51, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(52, 1) = "bachelors"</v>
-      </c>
-      <c r="G53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(52, 2) = "Bachelor's"</v>
-      </c>
-      <c r="H53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(52, 3) = "N"</v>
-      </c>
-      <c r="I53" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(52, 4) = "N"</v>
-      </c>
-      <c r="J53" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(52, 1) = "bachelors" : megaMacro(52, 2) = "Bachelor's" : megaMacro(52, 3) = "N" : megaMacro(52, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>3</v>
@@ -2613,12 +2614,12 @@
         <v>megaMacro(53, 1) = "bachelor's" : megaMacro(53, 2) = "Bachelor's" : megaMacro(53, 3) = "Y" : megaMacro(53, 4) = "N"</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>3</v>
@@ -2647,12 +2648,12 @@
         <v>megaMacro(54, 1) = "master's" : megaMacro(54, 2) = "Master's" : megaMacro(54, 3) = "Y" : megaMacro(54, 4) = "N"</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>3</v>
@@ -2681,12 +2682,12 @@
         <v>megaMacro(55, 1) = "Bachelor's Degree" : megaMacro(55, 2) = "Bachelor's degree" : megaMacro(55, 3) = "Y" : megaMacro(55, 4) = "N"</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
@@ -2715,15 +2716,15 @@
         <v>megaMacro(56, 1) = "Master's Degree" : megaMacro(56, 2) = "Master's degree" : megaMacro(56, 3) = "Y" : megaMacro(56, 4) = "N"</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>2</v>
@@ -2752,12 +2753,12 @@
         <v>megaMacro(57, 1) = "APl" : megaMacro(57, 2) = "API" : megaMacro(57, 3) = "N" : megaMacro(57, 4) = "Y"</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -2786,12 +2787,12 @@
         <v>megaMacro(58, 1) = "etc" : megaMacro(58, 2) = "etc." : megaMacro(58, 3) = "N" : megaMacro(58, 4) = "Y"</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
@@ -2820,12 +2821,12 @@
         <v>megaMacro(59, 1) = "i.e" : megaMacro(59, 2) = "i.e." : megaMacro(59, 3) = "N" : megaMacro(59, 4) = "Y"</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -2854,12 +2855,12 @@
         <v>megaMacro(60, 1) = "ie" : megaMacro(60, 2) = "i.e." : megaMacro(60, 3) = "N" : megaMacro(60, 4) = "Y"</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
@@ -2888,12 +2889,12 @@
         <v>megaMacro(61, 1) = "java" : megaMacro(61, 2) = "Java" : megaMacro(61, 3) = "Y" : megaMacro(61, 4) = "Y"</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>3</v>
@@ -2922,12 +2923,12 @@
         <v>megaMacro(62, 1) = "Jquery" : megaMacro(62, 2) = "jQuery" : megaMacro(62, 3) = "Y" : megaMacro(62, 4) = "Y"</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>2</v>
@@ -2956,12 +2957,12 @@
         <v>megaMacro(63, 1) = "KPl" : megaMacro(63, 2) = "KPI" : megaMacro(63, 3) = "N" : megaMacro(63, 4) = "Y"</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>3</v>
@@ -2990,52 +2991,52 @@
         <v>megaMacro(64, 1) = "VOiP" : megaMacro(64, 2) = "VOIP" : megaMacro(64, 3) = "Y" : megaMacro(64, 4) = "Y"</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(65, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>megaMacro(65, 2) = ""</v>
+      </c>
+      <c r="H66" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>megaMacro(65, 3) = "N"</v>
+      </c>
+      <c r="I66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>megaMacro(65, 4) = "N"</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(65, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr : megaMacro(65, 2) = "" : megaMacro(65, 3) = "N" : megaMacro(65, 4) = "N"</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(65, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr</v>
-      </c>
-      <c r="G66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(65, 2) = ""</v>
-      </c>
-      <c r="H66" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(65, 3) = "N"</v>
-      </c>
-      <c r="I66" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(65, 4) = "N"</v>
-      </c>
-      <c r="J66" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(65, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr : megaMacro(65, 2) = "" : megaMacro(65, 3) = "N" : megaMacro(65, 4) = "N"</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="B67" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>2</v>
@@ -3064,7 +3065,7 @@
         <v>megaMacro(66, 1) = "" : megaMacro(66, 2) = "" : megaMacro(66, 3) = "N" : megaMacro(66, 4) = "N"</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
@@ -3075,7 +3076,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
@@ -3086,7 +3087,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
@@ -3097,7 +3098,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
@@ -3108,7 +3109,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="3"/>
@@ -3119,7 +3120,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
@@ -3130,7 +3131,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="3"/>
@@ -3141,7 +3142,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
@@ -3152,7 +3153,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="3"/>
@@ -3163,7 +3164,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
@@ -3174,7 +3175,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
@@ -3185,7 +3186,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
@@ -3196,7 +3197,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="3"/>
@@ -3207,7 +3208,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="3"/>
@@ -3218,7 +3219,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="3"/>
@@ -3229,7 +3230,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
@@ -3240,7 +3241,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="3"/>
@@ -3251,7 +3252,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="3"/>
@@ -3262,7 +3263,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="3"/>
@@ -3273,7 +3274,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
@@ -3284,7 +3285,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
@@ -3295,7 +3296,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
@@ -3306,7 +3307,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
@@ -3317,7 +3318,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="3"/>
@@ -3328,7 +3329,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="3"/>
@@ -3339,7 +3340,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="3"/>
@@ -3350,7 +3351,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="3"/>
@@ -3361,7 +3362,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="3"/>
@@ -3372,7 +3373,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="3"/>
@@ -3383,7 +3384,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="3"/>
@@ -3394,7 +3395,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="3"/>
@@ -3405,7 +3406,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="3"/>
@@ -3416,7 +3417,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="3"/>
@@ -3427,7 +3428,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="3"/>
@@ -3438,7 +3439,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="3"/>
@@ -3449,7 +3450,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="3"/>
@@ -3460,7 +3461,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="3"/>
@@ -3471,7 +3472,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="3"/>
@@ -3482,7 +3483,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="3"/>
@@ -3493,7 +3494,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="3"/>
@@ -3504,7 +3505,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="3"/>
@@ -3515,7 +3516,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="3"/>
@@ -3526,7 +3527,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="3"/>
@@ -3537,7 +3538,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="3"/>
@@ -3548,7 +3549,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="3"/>
@@ -3559,7 +3560,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="3"/>
@@ -3570,7 +3571,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="3"/>
@@ -3581,7 +3582,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="3"/>
@@ -3592,7 +3593,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="3"/>
@@ -3603,7 +3604,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="3"/>
@@ -3614,7 +3615,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="3"/>
@@ -3625,7 +3626,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="3"/>
@@ -3636,7 +3637,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="3"/>
@@ -3647,7 +3648,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="3"/>
@@ -3658,7 +3659,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="3"/>
@@ -3669,7 +3670,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="3"/>
@@ -3680,7 +3681,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="3"/>
@@ -3691,7 +3692,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="3"/>
@@ -3702,7 +3703,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="3"/>
@@ -3713,7 +3714,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="3"/>
@@ -3724,7 +3725,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="3"/>
@@ -3735,7 +3736,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="3"/>
@@ -3746,7 +3747,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="3"/>
@@ -3757,7 +3758,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="3"/>
@@ -3768,7 +3769,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="3"/>
@@ -3779,7 +3780,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="3"/>
@@ -3790,7 +3791,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="3"/>
@@ -3801,7 +3802,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="3"/>
@@ -3812,7 +3813,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="3"/>
@@ -3823,7 +3824,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="3"/>
@@ -3834,7 +3835,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="3"/>
@@ -3845,7 +3846,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="3"/>
@@ -3856,7 +3857,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="3"/>
@@ -3867,7 +3868,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="3"/>
@@ -3878,7 +3879,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="3"/>
@@ -3889,7 +3890,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="3"/>
@@ -3900,7 +3901,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="3"/>
@@ -3911,7 +3912,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="3"/>
@@ -3922,7 +3923,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="3"/>
@@ -3933,7 +3934,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="3"/>
@@ -3944,7 +3945,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="3"/>
@@ -3955,7 +3956,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="3"/>
@@ -3966,7 +3967,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="3"/>
@@ -3977,7 +3978,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="3"/>
@@ -3988,7 +3989,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="3"/>
@@ -3999,7 +4000,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="3"/>
@@ -4010,7 +4011,7 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="3"/>
@@ -4021,7 +4022,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="3"/>
@@ -4032,7 +4033,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="3"/>
@@ -4043,7 +4044,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="3"/>
@@ -4054,7 +4055,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="3"/>
@@ -4065,7 +4066,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="3"/>
@@ -4076,7 +4077,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="3"/>
@@ -4087,7 +4088,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="3"/>
@@ -4098,7 +4099,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="3"/>
@@ -4109,7 +4110,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="3"/>
@@ -4120,7 +4121,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="3"/>
@@ -4131,7 +4132,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="3"/>
@@ -4142,7 +4143,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="3"/>
@@ -4153,7 +4154,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>4</v>
       </c>
@@ -4167,7 +4168,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="3"/>
@@ -4178,7 +4179,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="3"/>
@@ -4189,7 +4190,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="3"/>
@@ -4200,7 +4201,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="3"/>
@@ -4211,7 +4212,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="3"/>
@@ -4222,7 +4223,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="3"/>
@@ -4233,7 +4234,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="3"/>
@@ -4244,7 +4245,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="3"/>
@@ -4255,7 +4256,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="3"/>
@@ -4266,7 +4267,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="3"/>
@@ -4277,7 +4278,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="3"/>
@@ -4288,7 +4289,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="3"/>
@@ -4299,7 +4300,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="3"/>
@@ -4310,7 +4311,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="3"/>
@@ -4321,7 +4322,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="3"/>
@@ -4332,7 +4333,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="3"/>
@@ -4343,7 +4344,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>5</v>
       </c>
@@ -4357,7 +4358,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="3"/>
@@ -4368,7 +4369,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="3"/>
@@ -4380,7 +4381,7 @@
       <c r="J186" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="B59:E65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B59:E65">
     <sortCondition ref="B58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MegaMacro Repo.xlsx
+++ b/MegaMacro Repo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\Repositories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TECNYFS1\Evaluations\PaperlessBeta\To Do\Ellen\Projects\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3C2699-7A03-457E-A0C7-091BB92D98A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46F15F-E99F-437C-ADDF-D764C8F42C2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{34183979-10A8-E449-9473-CE85BD33BE39}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="98">
   <si>
     <t>MatchCase</t>
   </si>
@@ -248,9 +248,6 @@
     <t>"API"</t>
   </si>
   <si>
-    <t>"etc"</t>
-  </si>
-  <si>
     <t>"etc."</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>"i.e."</t>
   </si>
   <si>
-    <t>"i.e"</t>
-  </si>
-  <si>
     <t>"VOiP"</t>
   </si>
   <si>
@@ -330,6 +324,9 @@
   </si>
   <si>
     <t>" and "</t>
+  </si>
+  <si>
+    <t>"etc)"</t>
   </si>
 </sst>
 </file>
@@ -759,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352DA5B-E91A-A44B-AB60-2B3067D71A45}">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J2:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -805,10 +802,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -919,23 +916,23 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F67" si="0">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; B5</f>
+        <f t="shared" ref="F5:F66" si="0">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; B5</f>
         <v>megaMacro(4, 1) = "LARSEN and TOUBRO"</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G67" si="1">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; C5</f>
+        <f t="shared" ref="G5:G66" si="1">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; C5</f>
         <v>megaMacro(4, 2) = "LARSEN &amp; TOUBRO"</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f t="shared" ref="H5:H67" si="2">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; D5</f>
+        <f t="shared" ref="H5:H66" si="2">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; D5</f>
         <v>megaMacro(4, 3) = "Y"</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f t="shared" ref="I5:I67" si="3">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 4 &amp; ") = " &amp; E5</f>
+        <f t="shared" ref="I5:I66" si="3">"megaMacro(" &amp; ROW(B5)-1 &amp; ", " &amp; 4 &amp; ") = " &amp; E5</f>
         <v>megaMacro(4, 4) = "Y"</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J67" si="4" xml:space="preserve"> F5 &amp; " : " &amp; G5 &amp; " : " &amp; H5 &amp; " : " &amp; I5</f>
+        <f t="shared" ref="J5:J66" si="4" xml:space="preserve"> F5 &amp; " : " &amp; G5 &amp; " : " &amp; H5 &amp; " : " &amp; I5</f>
         <v>megaMacro(4, 1) = "LARSEN and TOUBRO" : megaMacro(4, 2) = "LARSEN &amp; TOUBRO" : megaMacro(4, 3) = "Y" : megaMacro(4, 4) = "Y"</v>
       </c>
     </row>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>21</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>21</v>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>21</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>21</v>
@@ -2202,7 +2199,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>21</v>
@@ -2236,7 +2233,7 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>21</v>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>21</v>
@@ -2304,7 +2301,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>21</v>
@@ -2338,7 +2335,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>21</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>21</v>
@@ -2755,10 +2752,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -2768,7 +2765,7 @@
       </c>
       <c r="F59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>megaMacro(58, 1) = "etc"</v>
+        <v>megaMacro(58, 1) = "etc)"</v>
       </c>
       <c r="G59" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2784,15 +2781,15 @@
       </c>
       <c r="J59" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>megaMacro(58, 1) = "etc" : megaMacro(58, 2) = "etc." : megaMacro(58, 3) = "N" : megaMacro(58, 4) = "Y"</v>
+        <v>megaMacro(58, 1) = "etc)" : megaMacro(58, 2) = "etc." : megaMacro(58, 3) = "N" : megaMacro(58, 4) = "Y"</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
@@ -2802,7 +2799,7 @@
       </c>
       <c r="F60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>megaMacro(59, 1) = "i.e"</v>
+        <v>megaMacro(59, 1) = "ie"</v>
       </c>
       <c r="G60" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2818,33 +2815,33 @@
       </c>
       <c r="J60" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>megaMacro(59, 1) = "i.e" : megaMacro(59, 2) = "i.e." : megaMacro(59, 3) = "N" : megaMacro(59, 4) = "Y"</v>
+        <v>megaMacro(59, 1) = "ie" : megaMacro(59, 2) = "i.e." : megaMacro(59, 3) = "N" : megaMacro(59, 4) = "Y"</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>megaMacro(60, 1) = "ie"</v>
+        <v>megaMacro(60, 1) = "java"</v>
       </c>
       <c r="G61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>megaMacro(60, 2) = "i.e."</v>
+        <v>megaMacro(60, 2) = "Java"</v>
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>megaMacro(60, 3) = "N"</v>
+        <v>megaMacro(60, 3) = "Y"</v>
       </c>
       <c r="I61" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2852,15 +2849,15 @@
       </c>
       <c r="J61" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>megaMacro(60, 1) = "ie" : megaMacro(60, 2) = "i.e." : megaMacro(60, 3) = "N" : megaMacro(60, 4) = "Y"</v>
+        <v>megaMacro(60, 1) = "java" : megaMacro(60, 2) = "Java" : megaMacro(60, 3) = "Y" : megaMacro(60, 4) = "Y"</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>80</v>
+      <c r="B62" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
@@ -2870,83 +2867,83 @@
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>megaMacro(61, 1) = "java"</v>
+        <v>megaMacro(61, 1) = "Jquery"</v>
       </c>
       <c r="G62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>megaMacro(61, 2) = "Java"</v>
+        <v>megaMacro(61, 2) = "jQuery"</v>
       </c>
       <c r="H62" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H62" si="8">"megaMacro(" &amp; ROW(B62)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; D62</f>
         <v>megaMacro(61, 3) = "Y"</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I62" si="9">"megaMacro(" &amp; ROW(B62)-1 &amp; ", " &amp; 4 &amp; ") = " &amp; E62</f>
         <v>megaMacro(61, 4) = "Y"</v>
       </c>
       <c r="J62" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(61, 1) = "java" : megaMacro(61, 2) = "Java" : megaMacro(61, 3) = "Y" : megaMacro(61, 4) = "Y"</v>
+        <f t="shared" ref="J62" si="10" xml:space="preserve"> F62 &amp; " : " &amp; G62 &amp; " : " &amp; H62 &amp; " : " &amp; I62</f>
+        <v>megaMacro(61, 1) = "Jquery" : megaMacro(61, 2) = "jQuery" : megaMacro(61, 3) = "Y" : megaMacro(61, 4) = "Y"</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>96</v>
+      <c r="B63" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>megaMacro(62, 1) = "Jquery"</v>
+        <v>megaMacro(62, 1) = "KPl"</v>
       </c>
       <c r="G63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>megaMacro(62, 2) = "jQuery"</v>
+        <v>megaMacro(62, 2) = "KPI"</v>
       </c>
       <c r="H63" s="3" t="str">
-        <f t="shared" ref="H63" si="8">"megaMacro(" &amp; ROW(B63)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; D63</f>
-        <v>megaMacro(62, 3) = "Y"</v>
+        <f t="shared" si="2"/>
+        <v>megaMacro(62, 3) = "N"</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f t="shared" ref="I63" si="9">"megaMacro(" &amp; ROW(B63)-1 &amp; ", " &amp; 4 &amp; ") = " &amp; E63</f>
-        <v>megaMacro(62, 4) = "Y"</v>
+        <f t="shared" si="3"/>
+        <v>megaMacro(62, 4) = "N"</v>
       </c>
       <c r="J63" s="3" t="str">
-        <f t="shared" ref="J63" si="10" xml:space="preserve"> F63 &amp; " : " &amp; G63 &amp; " : " &amp; H63 &amp; " : " &amp; I63</f>
-        <v>megaMacro(62, 1) = "Jquery" : megaMacro(62, 2) = "jQuery" : megaMacro(62, 3) = "Y" : megaMacro(62, 4) = "Y"</v>
+        <f t="shared" si="4"/>
+        <v>megaMacro(62, 1) = "KPl" : megaMacro(62, 2) = "KPI" : megaMacro(62, 3) = "N" : megaMacro(62, 4) = "N"</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>megaMacro(63, 1) = "KPl"</v>
+        <v>megaMacro(63, 1) = "VOiP"</v>
       </c>
       <c r="G64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>megaMacro(63, 2) = "KPI"</v>
+        <v>megaMacro(63, 2) = "VOIP"</v>
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>megaMacro(63, 3) = "N"</v>
+        <v>megaMacro(63, 3) = "Y"</v>
       </c>
       <c r="I64" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2954,116 +2951,93 @@
       </c>
       <c r="J64" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>megaMacro(63, 1) = "KPl" : megaMacro(63, 2) = "KPI" : megaMacro(63, 3) = "N" : megaMacro(63, 4) = "Y"</v>
+        <v>megaMacro(63, 1) = "VOiP" : megaMacro(63, 2) = "VOIP" : megaMacro(63, 3) = "Y" : megaMacro(63, 4) = "Y"</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="B65" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>megaMacro(64, 1) = "VOiP"</v>
+        <v>megaMacro(64, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr</v>
       </c>
       <c r="G65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>megaMacro(64, 2) = "VOIP"</v>
+        <v>megaMacro(64, 2) = ""</v>
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>megaMacro(64, 3) = "Y"</v>
+        <v>megaMacro(64, 3) = "N"</v>
       </c>
       <c r="I65" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>megaMacro(64, 4) = "Y"</v>
+        <v>megaMacro(64, 4) = "N"</v>
       </c>
       <c r="J65" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>megaMacro(64, 1) = "VOiP" : megaMacro(64, 2) = "VOIP" : megaMacro(64, 3) = "Y" : megaMacro(64, 4) = "Y"</v>
+        <v>megaMacro(64, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr : megaMacro(64, 2) = "" : megaMacro(64, 3) = "N" : megaMacro(64, 4) = "N"</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(65, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr</v>
-      </c>
-      <c r="G66" s="3" t="str">
+      <c r="B66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>megaMacro(65, 1) = ""</v>
+      </c>
+      <c r="G66" s="12" t="str">
         <f t="shared" si="1"/>
         <v>megaMacro(65, 2) = ""</v>
       </c>
-      <c r="H66" s="3" t="str">
+      <c r="H66" s="12" t="str">
         <f t="shared" si="2"/>
         <v>megaMacro(65, 3) = "N"</v>
       </c>
-      <c r="I66" s="3" t="str">
+      <c r="I66" s="12" t="str">
         <f t="shared" si="3"/>
         <v>megaMacro(65, 4) = "N"</v>
       </c>
-      <c r="J66" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(65, 1) = "Location of Training:" &amp; vbTab &amp; "XXXX" &amp; vbCr : megaMacro(65, 2) = "" : megaMacro(65, 3) = "N" : megaMacro(65, 4) = "N"</v>
+      <c r="J66" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>megaMacro(65, 1) = "" : megaMacro(65, 2) = "" : megaMacro(65, 3) = "N" : megaMacro(65, 4) = "N"</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>megaMacro(66, 1) = ""</v>
-      </c>
-      <c r="G67" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>megaMacro(66, 2) = ""</v>
-      </c>
-      <c r="H67" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>megaMacro(66, 3) = "N"</v>
-      </c>
-      <c r="I67" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>megaMacro(66, 4) = "N"</v>
-      </c>
-      <c r="J67" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>megaMacro(66, 1) = "" : megaMacro(66, 2) = "" : megaMacro(66, 3) = "N" : megaMacro(66, 4) = "N"</v>
-      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
@@ -4143,7 +4117,10 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="3"/>
@@ -4154,10 +4131,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>4</v>
-      </c>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="3"/>
@@ -4333,7 +4307,10 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="3"/>
@@ -4344,10 +4321,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="3"/>
@@ -4369,19 +4343,8 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B59:E65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B59:E64">
     <sortCondition ref="B58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
